--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pltp-Abca1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pltp-Abca1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.0593280463142</v>
+        <v>18.27555233333333</v>
       </c>
       <c r="H2">
-        <v>17.0593280463142</v>
+        <v>54.826657</v>
       </c>
       <c r="I2">
-        <v>0.1245972086587789</v>
+        <v>0.09285905236529969</v>
       </c>
       <c r="J2">
-        <v>0.1245972086587789</v>
+        <v>0.09351170995335455</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.8393647112511</v>
+        <v>40.10860966666667</v>
       </c>
       <c r="N2">
-        <v>25.8393647112511</v>
+        <v>120.325829</v>
       </c>
       <c r="O2">
-        <v>0.1260010978131902</v>
+        <v>0.1618614946346038</v>
       </c>
       <c r="P2">
-        <v>0.1260010978131902</v>
+        <v>0.1634292560317296</v>
       </c>
       <c r="Q2">
-        <v>440.8021991175873</v>
+        <v>733.0069949804059</v>
       </c>
       <c r="R2">
-        <v>440.8021991175873</v>
+        <v>6597.062954823653</v>
       </c>
       <c r="S2">
-        <v>0.01569938507546528</v>
+        <v>0.01503030500620035</v>
       </c>
       <c r="T2">
-        <v>0.01569938507546528</v>
+        <v>0.01528254918793162</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.0593280463142</v>
+        <v>18.27555233333333</v>
       </c>
       <c r="H3">
-        <v>17.0593280463142</v>
+        <v>54.826657</v>
       </c>
       <c r="I3">
-        <v>0.1245972086587789</v>
+        <v>0.09285905236529969</v>
       </c>
       <c r="J3">
-        <v>0.1245972086587789</v>
+        <v>0.09351170995335455</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.7243411475032</v>
+        <v>25.55298433333334</v>
       </c>
       <c r="N3">
-        <v>22.7243411475032</v>
+        <v>76.65895300000001</v>
       </c>
       <c r="O3">
-        <v>0.1108112356346016</v>
+        <v>0.1031211071872511</v>
       </c>
       <c r="P3">
-        <v>0.1108112356346016</v>
+        <v>0.104119919730296</v>
       </c>
       <c r="Q3">
-        <v>387.6619902716131</v>
+        <v>466.9949024566802</v>
       </c>
       <c r="R3">
-        <v>387.6619902716131</v>
+        <v>4202.954122110122</v>
       </c>
       <c r="S3">
-        <v>0.01380677064810157</v>
+        <v>0.009575728292268635</v>
       </c>
       <c r="T3">
-        <v>0.01380677064810157</v>
+        <v>0.009736431734186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.0593280463142</v>
+        <v>18.27555233333333</v>
       </c>
       <c r="H4">
-        <v>17.0593280463142</v>
+        <v>54.826657</v>
       </c>
       <c r="I4">
-        <v>0.1245972086587789</v>
+        <v>0.09285905236529969</v>
       </c>
       <c r="J4">
-        <v>0.1245972086587789</v>
+        <v>0.09351170995335455</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>83.6193170583896</v>
+        <v>93.27444333333334</v>
       </c>
       <c r="N4">
-        <v>83.6193170583896</v>
+        <v>279.82333</v>
       </c>
       <c r="O4">
-        <v>0.4077548293266909</v>
+        <v>0.3764164585762545</v>
       </c>
       <c r="P4">
-        <v>0.4077548293266909</v>
+        <v>0.3800623608603699</v>
       </c>
       <c r="Q4">
-        <v>1426.489360707825</v>
+        <v>1704.641970500868</v>
       </c>
       <c r="R4">
-        <v>1426.489360707825</v>
+        <v>15341.77773450781</v>
       </c>
       <c r="S4">
-        <v>0.0508051135512425</v>
+        <v>0.03495367563809307</v>
       </c>
       <c r="T4">
-        <v>0.0508051135512425</v>
+        <v>0.03554028125296207</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.0593280463142</v>
+        <v>18.27555233333333</v>
       </c>
       <c r="H5">
-        <v>17.0593280463142</v>
+        <v>54.826657</v>
       </c>
       <c r="I5">
-        <v>0.1245972086587789</v>
+        <v>0.09285905236529969</v>
       </c>
       <c r="J5">
-        <v>0.1245972086587789</v>
+        <v>0.09351170995335455</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>66.4409119297197</v>
+        <v>81.72858433333333</v>
       </c>
       <c r="N5">
-        <v>66.4409119297197</v>
+        <v>245.185753</v>
       </c>
       <c r="O5">
-        <v>0.3239873710675617</v>
+        <v>0.3298222233207369</v>
       </c>
       <c r="P5">
-        <v>0.3239873710675617</v>
+        <v>0.3330168222017353</v>
       </c>
       <c r="Q5">
-        <v>1133.437312305359</v>
+        <v>1493.63502011308</v>
       </c>
       <c r="R5">
-        <v>1133.437312305359</v>
+        <v>13442.71518101772</v>
       </c>
       <c r="S5">
-        <v>0.04036792207571422</v>
+        <v>0.03062697910657988</v>
       </c>
       <c r="T5">
-        <v>0.04036792207571422</v>
+        <v>0.03114097248731652</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.0593280463142</v>
+        <v>18.27555233333333</v>
       </c>
       <c r="H6">
-        <v>17.0593280463142</v>
+        <v>54.826657</v>
       </c>
       <c r="I6">
-        <v>0.1245972086587789</v>
+        <v>0.09285905236529969</v>
       </c>
       <c r="J6">
-        <v>0.1245972086587789</v>
+        <v>0.09351170995335455</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.44860150167406</v>
+        <v>7.131247</v>
       </c>
       <c r="N6">
-        <v>6.44860150167406</v>
+        <v>14.262494</v>
       </c>
       <c r="O6">
-        <v>0.0314454661579556</v>
+        <v>0.0287787162811536</v>
       </c>
       <c r="P6">
-        <v>0.0314454661579556</v>
+        <v>0.01937164117586929</v>
       </c>
       <c r="Q6">
-        <v>110.0088084570122</v>
+        <v>130.3274777504263</v>
       </c>
       <c r="R6">
-        <v>110.0088084570122</v>
+        <v>781.9648665025579</v>
       </c>
       <c r="S6">
-        <v>0.003918017308255365</v>
+        <v>0.002672364322157745</v>
       </c>
       <c r="T6">
-        <v>0.003918017308255365</v>
+        <v>0.001811475290958349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.70121211240185</v>
+        <v>3.018652</v>
       </c>
       <c r="H7">
-        <v>2.70121211240185</v>
+        <v>9.055956</v>
       </c>
       <c r="I7">
-        <v>0.01972900036196159</v>
+        <v>0.01533793118960089</v>
       </c>
       <c r="J7">
-        <v>0.01972900036196159</v>
+        <v>0.01544573346542615</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.8393647112511</v>
+        <v>40.10860966666667</v>
       </c>
       <c r="N7">
-        <v>25.8393647112511</v>
+        <v>120.325829</v>
       </c>
       <c r="O7">
-        <v>0.1260010978131902</v>
+        <v>0.1618614946346038</v>
       </c>
       <c r="P7">
-        <v>0.1260010978131902</v>
+        <v>0.1634292560317296</v>
       </c>
       <c r="Q7">
-        <v>69.7976049348004</v>
+        <v>121.0739347875027</v>
       </c>
       <c r="R7">
-        <v>69.7976049348004</v>
+        <v>1089.665413087524</v>
       </c>
       <c r="S7">
-        <v>0.002485875704363988</v>
+        <v>0.002482620466951507</v>
       </c>
       <c r="T7">
-        <v>0.002485875704363988</v>
+        <v>0.002524284729118984</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.70121211240185</v>
+        <v>3.018652</v>
       </c>
       <c r="H8">
-        <v>2.70121211240185</v>
+        <v>9.055956</v>
       </c>
       <c r="I8">
-        <v>0.01972900036196159</v>
+        <v>0.01533793118960089</v>
       </c>
       <c r="J8">
-        <v>0.01972900036196159</v>
+        <v>0.01544573346542615</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.7243411475032</v>
+        <v>25.55298433333334</v>
       </c>
       <c r="N8">
-        <v>22.7243411475032</v>
+        <v>76.65895300000001</v>
       </c>
       <c r="O8">
-        <v>0.1108112356346016</v>
+        <v>0.1031211071872511</v>
       </c>
       <c r="P8">
-        <v>0.1108112356346016</v>
+        <v>0.104119919730296</v>
       </c>
       <c r="Q8">
-        <v>61.3832655539874</v>
+        <v>77.13556726378535</v>
       </c>
       <c r="R8">
-        <v>61.3832655539874</v>
+        <v>694.2201053740681</v>
       </c>
       <c r="S8">
-        <v>0.002186194907944465</v>
+        <v>0.001581664446233515</v>
       </c>
       <c r="T8">
-        <v>0.002186194907944465</v>
+        <v>0.001608208528595718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.70121211240185</v>
+        <v>3.018652</v>
       </c>
       <c r="H9">
-        <v>2.70121211240185</v>
+        <v>9.055956</v>
       </c>
       <c r="I9">
-        <v>0.01972900036196159</v>
+        <v>0.01533793118960089</v>
       </c>
       <c r="J9">
-        <v>0.01972900036196159</v>
+        <v>0.01544573346542615</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>83.6193170583896</v>
+        <v>93.27444333333334</v>
       </c>
       <c r="N9">
-        <v>83.6193170583896</v>
+        <v>279.82333</v>
       </c>
       <c r="O9">
-        <v>0.4077548293266909</v>
+        <v>0.3764164585762545</v>
       </c>
       <c r="P9">
-        <v>0.4077548293266909</v>
+        <v>0.3800623608603699</v>
       </c>
       <c r="Q9">
-        <v>225.8735120688926</v>
+        <v>281.5630849170533</v>
       </c>
       <c r="R9">
-        <v>225.8735120688926</v>
+        <v>2534.06776425348</v>
       </c>
       <c r="S9">
-        <v>0.008044595175377872</v>
+        <v>0.005773449740275845</v>
       </c>
       <c r="T9">
-        <v>0.008044595175377872</v>
+        <v>0.005870341926089885</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.70121211240185</v>
+        <v>3.018652</v>
       </c>
       <c r="H10">
-        <v>2.70121211240185</v>
+        <v>9.055956</v>
       </c>
       <c r="I10">
-        <v>0.01972900036196159</v>
+        <v>0.01533793118960089</v>
       </c>
       <c r="J10">
-        <v>0.01972900036196159</v>
+        <v>0.01544573346542615</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>66.4409119297197</v>
+        <v>81.72858433333333</v>
       </c>
       <c r="N10">
-        <v>66.4409119297197</v>
+        <v>245.185753</v>
       </c>
       <c r="O10">
-        <v>0.3239873710675617</v>
+        <v>0.3298222233207369</v>
       </c>
       <c r="P10">
-        <v>0.3239873710675617</v>
+        <v>0.3330168222017353</v>
       </c>
       <c r="Q10">
-        <v>179.4709960635834</v>
+        <v>246.7101545549853</v>
       </c>
       <c r="R10">
-        <v>179.4709960635834</v>
+        <v>2220.391390994868</v>
       </c>
       <c r="S10">
-        <v>0.006391946961062909</v>
+        <v>0.00505879056609464</v>
       </c>
       <c r="T10">
-        <v>0.006391946961062909</v>
+        <v>0.005143689075231214</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.70121211240185</v>
+        <v>3.018652</v>
       </c>
       <c r="H11">
-        <v>2.70121211240185</v>
+        <v>9.055956</v>
       </c>
       <c r="I11">
-        <v>0.01972900036196159</v>
+        <v>0.01533793118960089</v>
       </c>
       <c r="J11">
-        <v>0.01972900036196159</v>
+        <v>0.01544573346542615</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.44860150167406</v>
+        <v>7.131247</v>
       </c>
       <c r="N11">
-        <v>6.44860150167406</v>
+        <v>14.262494</v>
       </c>
       <c r="O11">
-        <v>0.0314454661579556</v>
+        <v>0.0287787162811536</v>
       </c>
       <c r="P11">
-        <v>0.0314454661579556</v>
+        <v>0.01937164117586929</v>
       </c>
       <c r="Q11">
-        <v>17.41904048437473</v>
+        <v>21.526753019044</v>
       </c>
       <c r="R11">
-        <v>17.41904048437473</v>
+        <v>129.160518114264</v>
       </c>
       <c r="S11">
-        <v>0.0006203876132123569</v>
+        <v>0.0004414059700453807</v>
       </c>
       <c r="T11">
-        <v>0.0006203876132123569</v>
+        <v>0.0002992092063903515</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>71.8327311672206</v>
+        <v>102.676348</v>
       </c>
       <c r="H12">
-        <v>71.8327311672206</v>
+        <v>308.029044</v>
       </c>
       <c r="I12">
-        <v>0.5246489058345947</v>
+        <v>0.5217039792674064</v>
       </c>
       <c r="J12">
-        <v>0.5246489058345947</v>
+        <v>0.525370762980079</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.8393647112511</v>
+        <v>40.10860966666667</v>
       </c>
       <c r="N12">
-        <v>25.8393647112511</v>
+        <v>120.325829</v>
       </c>
       <c r="O12">
-        <v>0.1260010978131902</v>
+        <v>0.1618614946346038</v>
       </c>
       <c r="P12">
-        <v>0.1260010978131902</v>
+        <v>0.1634292560317296</v>
       </c>
       <c r="Q12">
-        <v>1856.112138835067</v>
+        <v>4118.205563930831</v>
       </c>
       <c r="R12">
-        <v>1856.112138835067</v>
+        <v>37063.85007537748</v>
       </c>
       <c r="S12">
-        <v>0.06610633810164798</v>
+        <v>0.08444378584104277</v>
       </c>
       <c r="T12">
-        <v>0.06610633810164798</v>
+        <v>0.08586095293465645</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>71.8327311672206</v>
+        <v>102.676348</v>
       </c>
       <c r="H13">
-        <v>71.8327311672206</v>
+        <v>308.029044</v>
       </c>
       <c r="I13">
-        <v>0.5246489058345947</v>
+        <v>0.5217039792674064</v>
       </c>
       <c r="J13">
-        <v>0.5246489058345947</v>
+        <v>0.525370762980079</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.7243411475032</v>
+        <v>25.55298433333334</v>
       </c>
       <c r="N13">
-        <v>22.7243411475032</v>
+        <v>76.65895300000001</v>
       </c>
       <c r="O13">
-        <v>0.1108112356346016</v>
+        <v>0.1031211071872511</v>
       </c>
       <c r="P13">
-        <v>0.1108112356346016</v>
+        <v>0.104119919730296</v>
       </c>
       <c r="Q13">
-        <v>1632.351488600807</v>
+        <v>2623.687111847882</v>
       </c>
       <c r="R13">
-        <v>1632.351488600807</v>
+        <v>23613.18400663093</v>
       </c>
       <c r="S13">
-        <v>0.05813699352987316</v>
+        <v>0.05379869196604966</v>
       </c>
       <c r="T13">
-        <v>0.05813699352987316</v>
+        <v>0.05470156167013021</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>71.8327311672206</v>
+        <v>102.676348</v>
       </c>
       <c r="H14">
-        <v>71.8327311672206</v>
+        <v>308.029044</v>
       </c>
       <c r="I14">
-        <v>0.5246489058345947</v>
+        <v>0.5217039792674064</v>
       </c>
       <c r="J14">
-        <v>0.5246489058345947</v>
+        <v>0.525370762980079</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>83.6193170583896</v>
+        <v>93.27444333333334</v>
       </c>
       <c r="N14">
-        <v>83.6193170583896</v>
+        <v>279.82333</v>
       </c>
       <c r="O14">
-        <v>0.4077548293266909</v>
+        <v>0.3764164585762545</v>
       </c>
       <c r="P14">
-        <v>0.4077548293266909</v>
+        <v>0.3800623608603699</v>
       </c>
       <c r="Q14">
-        <v>6006.603922641883</v>
+        <v>9577.079203199613</v>
       </c>
       <c r="R14">
-        <v>6006.603922641883</v>
+        <v>86193.71282879652</v>
       </c>
       <c r="S14">
-        <v>0.2139281250550203</v>
+        <v>0.1963779643009768</v>
       </c>
       <c r="T14">
-        <v>0.2139281250550203</v>
+        <v>0.1996736525052226</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>71.8327311672206</v>
+        <v>102.676348</v>
       </c>
       <c r="H15">
-        <v>71.8327311672206</v>
+        <v>308.029044</v>
       </c>
       <c r="I15">
-        <v>0.5246489058345947</v>
+        <v>0.5217039792674064</v>
       </c>
       <c r="J15">
-        <v>0.5246489058345947</v>
+        <v>0.525370762980079</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>66.4409119297197</v>
+        <v>81.72858433333333</v>
       </c>
       <c r="N15">
-        <v>66.4409119297197</v>
+        <v>245.185753</v>
       </c>
       <c r="O15">
-        <v>0.3239873710675617</v>
+        <v>0.3298222233207369</v>
       </c>
       <c r="P15">
-        <v>0.3239873710675617</v>
+        <v>0.3330168222017353</v>
       </c>
       <c r="Q15">
-        <v>4772.632165152536</v>
+        <v>8391.592566556681</v>
       </c>
       <c r="R15">
-        <v>4772.632165152536</v>
+        <v>75524.33309901012</v>
       </c>
       <c r="S15">
-        <v>0.1699796197348231</v>
+        <v>0.1720695663572516</v>
       </c>
       <c r="T15">
-        <v>0.1699796197348231</v>
+        <v>0.174957301965327</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>71.8327311672206</v>
+        <v>102.676348</v>
       </c>
       <c r="H16">
-        <v>71.8327311672206</v>
+        <v>308.029044</v>
       </c>
       <c r="I16">
-        <v>0.5246489058345947</v>
+        <v>0.5217039792674064</v>
       </c>
       <c r="J16">
-        <v>0.5246489058345947</v>
+        <v>0.525370762980079</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.44860150167406</v>
+        <v>7.131247</v>
       </c>
       <c r="N16">
-        <v>6.44860150167406</v>
+        <v>14.262494</v>
       </c>
       <c r="O16">
-        <v>0.0314454661579556</v>
+        <v>0.0287787162811536</v>
       </c>
       <c r="P16">
-        <v>0.0314454661579556</v>
+        <v>0.01937164117586929</v>
       </c>
       <c r="Q16">
-        <v>463.2206580742878</v>
+        <v>732.210398645956</v>
       </c>
       <c r="R16">
-        <v>463.2206580742878</v>
+        <v>4393.262391875736</v>
       </c>
       <c r="S16">
-        <v>0.01649782941323018</v>
+        <v>0.01501397080208553</v>
       </c>
       <c r="T16">
-        <v>0.01649782941323018</v>
+        <v>0.01017729390474276</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.2274982492663</v>
+        <v>68.71818999999999</v>
       </c>
       <c r="H17">
-        <v>41.2274982492663</v>
+        <v>206.15457</v>
       </c>
       <c r="I17">
-        <v>0.3011156821591885</v>
+        <v>0.3491607743104935</v>
       </c>
       <c r="J17">
-        <v>0.3011156821591885</v>
+        <v>0.3516148423092534</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.8393647112511</v>
+        <v>40.10860966666667</v>
       </c>
       <c r="N17">
-        <v>25.8393647112511</v>
+        <v>120.325829</v>
       </c>
       <c r="O17">
-        <v>0.1260010978131902</v>
+        <v>0.1618614946346038</v>
       </c>
       <c r="P17">
-        <v>0.1260010978131902</v>
+        <v>0.1634292560317296</v>
       </c>
       <c r="Q17">
-        <v>1065.292363395258</v>
+        <v>2756.191059709836</v>
       </c>
       <c r="R17">
-        <v>1065.292363395258</v>
+        <v>24805.71953738853</v>
       </c>
       <c r="S17">
-        <v>0.03794090652082541</v>
+        <v>0.05651568479767206</v>
       </c>
       <c r="T17">
-        <v>0.03794090652082541</v>
+        <v>0.05746415208831521</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.2274982492663</v>
+        <v>68.71818999999999</v>
       </c>
       <c r="H18">
-        <v>41.2274982492663</v>
+        <v>206.15457</v>
       </c>
       <c r="I18">
-        <v>0.3011156821591885</v>
+        <v>0.3491607743104935</v>
       </c>
       <c r="J18">
-        <v>0.3011156821591885</v>
+        <v>0.3516148423092534</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>22.7243411475032</v>
+        <v>25.55298433333334</v>
       </c>
       <c r="N18">
-        <v>22.7243411475032</v>
+        <v>76.65895300000001</v>
       </c>
       <c r="O18">
-        <v>0.1108112356346016</v>
+        <v>0.1031211071872511</v>
       </c>
       <c r="P18">
-        <v>0.1108112356346016</v>
+        <v>0.104119919730296</v>
       </c>
       <c r="Q18">
-        <v>936.8677348744183</v>
+        <v>1755.954832485023</v>
       </c>
       <c r="R18">
-        <v>936.8677348744183</v>
+        <v>15803.59349236521</v>
       </c>
       <c r="S18">
-        <v>0.03336700080901563</v>
+        <v>0.036005845633256</v>
       </c>
       <c r="T18">
-        <v>0.03336700080901563</v>
+        <v>0.03661010915722017</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.2274982492663</v>
+        <v>68.71818999999999</v>
       </c>
       <c r="H19">
-        <v>41.2274982492663</v>
+        <v>206.15457</v>
       </c>
       <c r="I19">
-        <v>0.3011156821591885</v>
+        <v>0.3491607743104935</v>
       </c>
       <c r="J19">
-        <v>0.3011156821591885</v>
+        <v>0.3516148423092534</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>83.6193170583896</v>
+        <v>93.27444333333334</v>
       </c>
       <c r="N19">
-        <v>83.6193170583896</v>
+        <v>279.82333</v>
       </c>
       <c r="O19">
-        <v>0.4077548293266909</v>
+        <v>0.3764164585762545</v>
       </c>
       <c r="P19">
-        <v>0.4077548293266909</v>
+        <v>0.3800623608603699</v>
       </c>
       <c r="Q19">
-        <v>3447.4152476296</v>
+        <v>6409.650919124233</v>
       </c>
       <c r="R19">
-        <v>3447.4152476296</v>
+        <v>57686.85827211809</v>
       </c>
       <c r="S19">
-        <v>0.12278137358641</v>
+        <v>0.1314298621396988</v>
       </c>
       <c r="T19">
-        <v>0.12278137358641</v>
+        <v>0.1336355670816015</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.2274982492663</v>
+        <v>68.71818999999999</v>
       </c>
       <c r="H20">
-        <v>41.2274982492663</v>
+        <v>206.15457</v>
       </c>
       <c r="I20">
-        <v>0.3011156821591885</v>
+        <v>0.3491607743104935</v>
       </c>
       <c r="J20">
-        <v>0.3011156821591885</v>
+        <v>0.3516148423092534</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>66.4409119297197</v>
+        <v>81.72858433333333</v>
       </c>
       <c r="N20">
-        <v>66.4409119297197</v>
+        <v>245.185753</v>
       </c>
       <c r="O20">
-        <v>0.3239873710675617</v>
+        <v>0.3298222233207369</v>
       </c>
       <c r="P20">
-        <v>0.3239873710675617</v>
+        <v>0.3330168222017353</v>
       </c>
       <c r="Q20">
-        <v>2739.192580262175</v>
+        <v>5616.240386649022</v>
       </c>
       <c r="R20">
-        <v>2739.192580262175</v>
+        <v>50546.1634798412</v>
       </c>
       <c r="S20">
-        <v>0.09755767824997097</v>
+        <v>0.115160982879477</v>
       </c>
       <c r="T20">
-        <v>0.09755767824997097</v>
+        <v>0.1170936574247919</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.2274982492663</v>
+        <v>68.71818999999999</v>
       </c>
       <c r="H21">
-        <v>41.2274982492663</v>
+        <v>206.15457</v>
       </c>
       <c r="I21">
-        <v>0.3011156821591885</v>
+        <v>0.3491607743104935</v>
       </c>
       <c r="J21">
-        <v>0.3011156821591885</v>
+        <v>0.3516148423092534</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.44860150167406</v>
+        <v>7.131247</v>
       </c>
       <c r="N21">
-        <v>6.44860150167406</v>
+        <v>14.262494</v>
       </c>
       <c r="O21">
-        <v>0.0314454661579556</v>
+        <v>0.0287787162811536</v>
       </c>
       <c r="P21">
-        <v>0.0314454661579556</v>
+        <v>0.01937164117586929</v>
       </c>
       <c r="Q21">
-        <v>265.8597071204833</v>
+        <v>490.04638628293</v>
       </c>
       <c r="R21">
-        <v>265.8597071204833</v>
+        <v>2940.27831769758</v>
       </c>
       <c r="S21">
-        <v>0.009468722992966475</v>
+        <v>0.0100483988603896</v>
       </c>
       <c r="T21">
-        <v>0.009468722992966475</v>
+        <v>0.006811356557324721</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.09504282499903</v>
+        <v>4.120851</v>
       </c>
       <c r="H22">
-        <v>4.09504282499903</v>
+        <v>8.241702</v>
       </c>
       <c r="I22">
-        <v>0.02990920298547627</v>
+        <v>0.02093826286719967</v>
       </c>
       <c r="J22">
-        <v>0.02990920298547627</v>
+        <v>0.01405695129188676</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.8393647112511</v>
+        <v>40.10860966666667</v>
       </c>
       <c r="N22">
-        <v>25.8393647112511</v>
+        <v>120.325829</v>
       </c>
       <c r="O22">
-        <v>0.1260010978131902</v>
+        <v>0.1618614946346038</v>
       </c>
       <c r="P22">
-        <v>0.1260010978131902</v>
+        <v>0.1634292560317296</v>
       </c>
       <c r="Q22">
-        <v>105.813305063342</v>
+        <v>165.281604253493</v>
       </c>
       <c r="R22">
-        <v>105.813305063342</v>
+        <v>991.689625520958</v>
       </c>
       <c r="S22">
-        <v>0.003768592410887556</v>
+        <v>0.003389098522737164</v>
       </c>
       <c r="T22">
-        <v>0.003768592410887556</v>
+        <v>0.002297317091707313</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.09504282499903</v>
+        <v>4.120851</v>
       </c>
       <c r="H23">
-        <v>4.09504282499903</v>
+        <v>8.241702</v>
       </c>
       <c r="I23">
-        <v>0.02990920298547627</v>
+        <v>0.02093826286719967</v>
       </c>
       <c r="J23">
-        <v>0.02990920298547627</v>
+        <v>0.01405695129188676</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.7243411475032</v>
+        <v>25.55298433333334</v>
       </c>
       <c r="N23">
-        <v>22.7243411475032</v>
+        <v>76.65895300000001</v>
       </c>
       <c r="O23">
-        <v>0.1108112356346016</v>
+        <v>0.1031211071872511</v>
       </c>
       <c r="P23">
-        <v>0.1108112356346016</v>
+        <v>0.104119919730296</v>
       </c>
       <c r="Q23">
-        <v>93.05715016891321</v>
+        <v>105.300041043001</v>
       </c>
       <c r="R23">
-        <v>93.05715016891321</v>
+        <v>631.800246258006</v>
       </c>
       <c r="S23">
-        <v>0.00331427573966674</v>
+        <v>0.002159176849443337</v>
       </c>
       <c r="T23">
-        <v>0.00331427573966674</v>
+        <v>0.00146360864016393</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.09504282499903</v>
+        <v>4.120851</v>
       </c>
       <c r="H24">
-        <v>4.09504282499903</v>
+        <v>8.241702</v>
       </c>
       <c r="I24">
-        <v>0.02990920298547627</v>
+        <v>0.02093826286719967</v>
       </c>
       <c r="J24">
-        <v>0.02990920298547627</v>
+        <v>0.01405695129188676</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>83.6193170583896</v>
+        <v>93.27444333333334</v>
       </c>
       <c r="N24">
-        <v>83.6193170583896</v>
+        <v>279.82333</v>
       </c>
       <c r="O24">
-        <v>0.4077548293266909</v>
+        <v>0.3764164585762545</v>
       </c>
       <c r="P24">
-        <v>0.4077548293266909</v>
+        <v>0.3800623608603699</v>
       </c>
       <c r="Q24">
-        <v>342.4246843512773</v>
+        <v>384.37008308461</v>
       </c>
       <c r="R24">
-        <v>342.4246843512773</v>
+        <v>2306.22049850766</v>
       </c>
       <c r="S24">
-        <v>0.01219562195864023</v>
+        <v>0.007881506757209993</v>
       </c>
       <c r="T24">
-        <v>0.01219562195864023</v>
+        <v>0.005342518094493707</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.09504282499903</v>
+        <v>4.120851</v>
       </c>
       <c r="H25">
-        <v>4.09504282499903</v>
+        <v>8.241702</v>
       </c>
       <c r="I25">
-        <v>0.02990920298547627</v>
+        <v>0.02093826286719967</v>
       </c>
       <c r="J25">
-        <v>0.02990920298547627</v>
+        <v>0.01405695129188676</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>66.4409119297197</v>
+        <v>81.72858433333333</v>
       </c>
       <c r="N25">
-        <v>66.4409119297197</v>
+        <v>245.185753</v>
       </c>
       <c r="O25">
-        <v>0.3239873710675617</v>
+        <v>0.3298222233207369</v>
       </c>
       <c r="P25">
-        <v>0.3239873710675617</v>
+        <v>0.3330168222017353</v>
       </c>
       <c r="Q25">
-        <v>272.0783796841911</v>
+        <v>336.791318478601</v>
       </c>
       <c r="R25">
-        <v>272.0783796841911</v>
+        <v>2020.747910871606</v>
       </c>
       <c r="S25">
-        <v>0.009690204045990525</v>
+        <v>0.006905904411333822</v>
       </c>
       <c r="T25">
-        <v>0.009690204045990525</v>
+        <v>0.004681201249068706</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.09504282499903</v>
+        <v>4.120851</v>
       </c>
       <c r="H26">
-        <v>4.09504282499903</v>
+        <v>8.241702</v>
       </c>
       <c r="I26">
-        <v>0.02990920298547627</v>
+        <v>0.02093826286719967</v>
       </c>
       <c r="J26">
-        <v>0.02990920298547627</v>
+        <v>0.01405695129188676</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.44860150167406</v>
+        <v>7.131247</v>
       </c>
       <c r="N26">
-        <v>6.44860150167406</v>
+        <v>14.262494</v>
       </c>
       <c r="O26">
-        <v>0.0314454661579556</v>
+        <v>0.0287787162811536</v>
       </c>
       <c r="P26">
-        <v>0.0314454661579556</v>
+        <v>0.01937164117586929</v>
       </c>
       <c r="Q26">
-        <v>26.40729931070833</v>
+        <v>29.386806331197</v>
       </c>
       <c r="R26">
-        <v>26.40729931070833</v>
+        <v>117.547225324788</v>
       </c>
       <c r="S26">
-        <v>0.0009405088302912185</v>
+        <v>0.000602576326475353</v>
       </c>
       <c r="T26">
-        <v>0.0009405088302912185</v>
+        <v>0.0002723062164531025</v>
       </c>
     </row>
   </sheetData>
